--- a/data/SPX_XLK.xlsx
+++ b/data/SPX_XLK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Documents\GitHub\RelativeRotationGraphs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\RelativeRotationGraphs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6C9D0-5DC7-4222-9765-BAD8CAE84189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3113178-4246-4F4E-B878-D01A44DC012A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="10155" windowHeight="10125" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 Historische Daten" sheetId="1" r:id="rId1"/>
@@ -550,48 +550,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,7 +609,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1758,7 +1758,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1771,931 +1771,20 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6738980067229414E-2"/>
+          <c:y val="3.7724723878042203E-2"/>
+          <c:w val="0.92549706467161097"/>
+          <c:h val="0.84626395276389299"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'S&amp;P 500 Historische Daten'!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RS-Ratio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'S&amp;P 500 Historische Daten'!$A$3:$A$147</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="145"/>
-                <c:pt idx="0">
-                  <c:v>42001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41973</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41966</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41959</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41952</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41945</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41938</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41931</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41924</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41910</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41903</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41896</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41889</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41882</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41868</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41861</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41854</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41847</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41840</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41833</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41826</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41819</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41812</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41798</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41784</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41777</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41770</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41763</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41756</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41749</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41742</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41735</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41728</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41721</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41714</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41707</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41700</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>41693</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41686</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>41679</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>41672</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>41665</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>41658</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41651</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>41644</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>41637</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>41630</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41623</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41616</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>41602</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41595</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>41588</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41581</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>41574</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>41567</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>41560</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>41553</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>41546</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41539</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41532</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>41525</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>41511</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>41504</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>41497</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>41490</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>41483</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>41476</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>41469</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>41462</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>41455</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>41448</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>41441</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>41434</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>41427</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>41420</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>41413</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>41406</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>41399</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>41392</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>41385</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>41378</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>41371</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>41364</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>41357</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>41350</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>41343</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>41336</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>41329</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>41322</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>41315</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>41308</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>41301</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>41294</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>41287</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>41280</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>41273</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>41266</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>41259</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>41252</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>41245</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>41238</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>41231</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>41224</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>41217</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>41210</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>41203</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>41196</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>41189</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>41182</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>41175</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>41168</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>41161</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>41154</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>41147</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>41140</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>41133</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>41126</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>41119</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>41112</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>41105</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>41098</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>41084</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>41077</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>41070</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>41063</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>41056</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>41049</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>41042</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>41035</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>41028</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>41021</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>41014</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>41007</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>41000</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>40993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'S&amp;P 500 Historische Daten'!$F$3:$F$147</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="145"/>
-                <c:pt idx="0">
-                  <c:v>99.922390993098574</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.97215363801992</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.108271565045314</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.08994949402188</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.94028626541456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>101.87783379027144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.48404022378561</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>101.8935389718859</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99.752530687819743</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.05608696718559</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.18380525442726</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100.88014100944282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>101.75399042102704</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>102.87015413240623</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103.4105010189336</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>101.88913062512907</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>103.40073842548819</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>102.06639035813606</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>102.33606453468701</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>103.27204849194025</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>103.91138088370035</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>103.48997603164639</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>105.02320098933349</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103.91732302636049</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>102.86590645424124</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>102.7084333944849</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>101.03257704444331</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100.50548704655948</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100.27393717323093</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>101.55246234092054</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100.21203352244042</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100.42606438713285</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.14926905882533</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100.00274240760751</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>99.010561039721196</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>98.583940510227322</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>98.674466029837916</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100.78050159700298</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100.80630723031697</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>99.673275287015116</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100.99227507395662</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100.98204019288231</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100.32321960778694</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100.94919435367008</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>103.28125469349143</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>102.6375150585373</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>102.46487505117355</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>102.22503244676557</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>102.60969662372034</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>102.98280638759834</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>102.050730388917</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100.7100883612389</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>100.91469408161548</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>101.94173624048912</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>100.60200000125472</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100.36328127318738</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100.31790746852329</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>99.645133062837218</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>98.494952846881091</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100.91826659905765</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>101.62448360571018</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>101.86790854778452</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>102.42163547659018</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>100.26503699111798</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>99.715764439634611</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>99.956867981071071</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>99.466535426492072</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>98.25808949150651</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>98.983411714296608</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>98.86633207488758</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100.09395518710897</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>99.833963225781133</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>99.381857953423619</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>97.771873045090871</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>99.231799017879155</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>99.392053492928042</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>97.269866990429961</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>99.287680266855602</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>99.048599818196976</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>98.274500254713715</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>99.013484452288395</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>98.787134138872844</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>98.763657630341029</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>99.106145477091104</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>98.039814401960982</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>97.936114538866462</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>98.417001714703915</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>99.164686116207037</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>95.99330554868466</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>93.882682901111295</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>94.988282645533531</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>94.649892653565942</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>95.294955481305522</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95.478859944264968</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95.377365026909331</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>94.932528625196397</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>95.487454700414872</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>96.310583000186838</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>95.743278849077612</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>96.286909590055629</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>95.691907836364706</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>95.390383665887825</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>94.434924713073968</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>95.067900422163291</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>94.03309081261223</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>93.707446308006709</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>93.955169562965423</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>93.869425220765919</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>93.594258095094361</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>94.949703740054773</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>94.421023571552823</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>94.906863524134565</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>96.370992411845805</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>97.431877145463389</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>97.315413452105048</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>98.084239038986041</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>98.891770942355933</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>100.24921901935222</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>100.28036561172419</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>102.14470628346581</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>100.81656000834442</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>101.59247487383738</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>102.49722608012166</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>102.14410239160327</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>102.28508334935319</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>100.93553906266553</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>99.243082407591118</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>98.953646803794967</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>97.63710956637432</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>96.554626501847977</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>98.903142991710681</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>98.289352853743665</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>100.25159939744498</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>99.253550509065022</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>100.65220192621189</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>100.85525000754212</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>100.93989881883002</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>101.59014994087623</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>102.88712998274521</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>103.9016299476578</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>105.02741554597328</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>104.98578573895668</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>106.32362134984278</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEC2-4A93-BFEC-33628D9EE8C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2722,6 +1811,486 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'S&amp;P 500 Historische Daten'!$A$3:$A$159</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="157"/>
+                <c:pt idx="0">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>40909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'S&amp;P 500 Historische Daten'!$G$3:$G$159</c:f>
@@ -2729,403 +2298,403 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="157"/>
                 <c:pt idx="0">
-                  <c:v>100.84179810098944</c:v>
+                  <c:v>100.44911164464963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.09094881712052</c:v>
+                  <c:v>100.41996142787518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.15644717334258</c:v>
+                  <c:v>100.49856942729831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.46305194908851</c:v>
+                  <c:v>100.68577460136963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.53279772509667</c:v>
+                  <c:v>100.81319622899662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.63249617290182</c:v>
+                  <c:v>101.16280101698447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.73208293730673</c:v>
+                  <c:v>101.12043068216178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101.9768929844435</c:v>
+                  <c:v>101.3035177916201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.09092420299781</c:v>
+                  <c:v>101.42622906208753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.46740065310595</c:v>
+                  <c:v>101.61575250073427</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.7432032287613</c:v>
+                  <c:v>101.79479135845678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102.93478188589086</c:v>
+                  <c:v>102.21377961432658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103.06537419910816</c:v>
+                  <c:v>102.5803352177591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103.01384467220932</c:v>
+                  <c:v>102.90081275525112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.84493988036313</c:v>
+                  <c:v>102.95939229533444</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102.62089960567008</c:v>
+                  <c:v>102.86795728617243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102.59685187108376</c:v>
+                  <c:v>102.77544873690574</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102.36908723515178</c:v>
+                  <c:v>102.40473807387684</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>102.25192109436583</c:v>
+                  <c:v>102.34941380353791</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102.09572141751856</c:v>
+                  <c:v>102.2324519444212</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101.86219955435192</c:v>
+                  <c:v>102.13152967301977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101.51214099406771</c:v>
+                  <c:v>101.98283796124529</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.16170988539493</c:v>
+                  <c:v>101.7559248348261</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.70822881685953</c:v>
+                  <c:v>101.28936210013701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.484170143334</c:v>
+                  <c:v>100.89361678968123</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100.33705591305367</c:v>
+                  <c:v>100.41641905873438</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100.1202589053773</c:v>
+                  <c:v>100.08972065002054</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100.11738019319964</c:v>
+                  <c:v>99.966095699533341</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100.15141970365129</c:v>
+                  <c:v>99.877846010466783</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100.15493987754814</c:v>
+                  <c:v>99.963538539359902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100.11184930703027</c:v>
+                  <c:v>99.917120639888978</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.33107939067676</c:v>
+                  <c:v>99.869121505876251</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100.48904015291994</c:v>
+                  <c:v>99.809167693170977</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100.65444058094479</c:v>
+                  <c:v>99.879082221528108</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100.8131755837418</c:v>
+                  <c:v>100.05778633348375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>101.07025669688461</c:v>
+                  <c:v>100.47962545833872</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101.38446140241112</c:v>
+                  <c:v>100.75956777647087</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>101.6256231423453</c:v>
+                  <c:v>101.07666904770578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>101.62059362550504</c:v>
+                  <c:v>101.42964466806508</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>101.62833554345491</c:v>
+                  <c:v>101.63181686975297</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>101.79036846870304</c:v>
+                  <c:v>101.64457038367611</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>101.76249167779578</c:v>
+                  <c:v>101.6424045997508</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>101.71829461210328</c:v>
+                  <c:v>101.7112881172893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>101.71791517358447</c:v>
+                  <c:v>101.73085635496732</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>101.62476793852498</c:v>
+                  <c:v>101.81155927760913</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.28288923519567</c:v>
+                  <c:v>101.77750878991914</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101.16008577380425</c:v>
+                  <c:v>101.624854633753</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>101.100057813414</c:v>
+                  <c:v>101.1905389715879</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101.07454896348679</c:v>
+                  <c:v>100.90258227610241</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>101.06111602440606</c:v>
+                  <c:v>100.703160694529</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100.8669896389432</c:v>
+                  <c:v>100.56919589316861</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.7002063568516</c:v>
+                  <c:v>100.47824502063763</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100.64640490112534</c:v>
+                  <c:v>100.5592682715863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100.54296499718794</c:v>
+                  <c:v>100.68980143256807</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100.27984737226062</c:v>
+                  <c:v>100.57842015169861</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100.16423392319219</c:v>
+                  <c:v>100.48278171577182</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100.05730898045647</c:v>
+                  <c:v>100.30723425625189</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100.0413123889269</c:v>
+                  <c:v>100.20860259003183</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.05480025770861</c:v>
+                  <c:v>100.16033920514529</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>100.11815062246164</c:v>
+                  <c:v>100.25670743803191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>99.89340822574971</c:v>
+                  <c:v>100.28647631396352</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>99.72250218376179</c:v>
+                  <c:v>100.31996993253607</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>99.545655394129184</c:v>
+                  <c:v>100.05250511794581</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>99.177671930832034</c:v>
+                  <c:v>99.751497050204804</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>99.107860736241847</c:v>
+                  <c:v>99.371454761095322</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>99.060206120424866</c:v>
+                  <c:v>98.987325266045218</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98.940036997113651</c:v>
+                  <c:v>99.031693858066703</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>98.907676213241956</c:v>
+                  <c:v>99.052633651914221</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.945465116625243</c:v>
+                  <c:v>99.050065639487073</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>98.929768396342709</c:v>
+                  <c:v>99.014394789053412</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.946897925071539</c:v>
+                  <c:v>99.017888317468291</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>98.800173583275225</c:v>
+                  <c:v>99.033672538268931</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.664612962781334</c:v>
+                  <c:v>99.04395167823229</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>98.595694660015639</c:v>
+                  <c:v>98.896850713962067</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>98.695181307952524</c:v>
+                  <c:v>98.954882381822117</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>98.463860345867189</c:v>
+                  <c:v>99.059025520943635</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>98.070333875023152</c:v>
+                  <c:v>99.14399042111927</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>97.907363564673389</c:v>
+                  <c:v>99.038558397303817</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>97.576093020866992</c:v>
+                  <c:v>98.713726612864704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>97.307975568231896</c:v>
+                  <c:v>98.43206050134502</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>97.108286974628413</c:v>
+                  <c:v>98.075485972329318</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>96.848564158529911</c:v>
+                  <c:v>97.78976644665795</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>96.573235193267308</c:v>
+                  <c:v>97.480002984309991</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>96.339220698272584</c:v>
+                  <c:v>97.130964055487595</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>96.139537664207992</c:v>
+                  <c:v>96.863294998544802</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>95.975499410430615</c:v>
+                  <c:v>96.704284443743617</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>95.857699056944085</c:v>
+                  <c:v>96.425975594709996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.663049494205566</c:v>
+                  <c:v>96.178253700978544</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>95.393456462039936</c:v>
+                  <c:v>96.086237108252007</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>95.282143545210602</c:v>
+                  <c:v>96.03363914002712</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>95.366801939571474</c:v>
+                  <c:v>95.899994847591131</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>95.298573951505659</c:v>
+                  <c:v>95.876345317664402</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.231256355394279</c:v>
+                  <c:v>96.137889870779119</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95.135557361227143</c:v>
+                  <c:v>96.150905600967619</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95.02059773812006</c:v>
+                  <c:v>96.135184636015495</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>94.893232957276126</c:v>
+                  <c:v>96.054492125119893</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>94.89445975119456</c:v>
+                  <c:v>95.874376016896235</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>94.818286099133005</c:v>
+                  <c:v>95.691650047832184</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.718020422272147</c:v>
+                  <c:v>95.683110678407445</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.762857105327001</c:v>
+                  <c:v>95.578083598021237</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>94.844640502141843</c:v>
+                  <c:v>95.323979201694669</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>94.960605188980438</c:v>
+                  <c:v>95.189518170365588</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>95.153023429916033</c:v>
+                  <c:v>95.218822779713378</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>95.471369589150441</c:v>
+                  <c:v>95.248281358179455</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>95.841463774663936</c:v>
+                  <c:v>95.154870620790703</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>96.287697688886212</c:v>
+                  <c:v>95.422976485915726</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>96.890359115704754</c:v>
+                  <c:v>95.909536594550147</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>97.380458433231823</c:v>
+                  <c:v>96.441939988922528</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>97.932104837022635</c:v>
+                  <c:v>97.130763163385723</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>98.568031121667431</c:v>
+                  <c:v>97.699702268342989</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>99.08191673963519</c:v>
+                  <c:v>98.300305661484458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>99.64363529519234</c:v>
+                  <c:v>98.882323774945064</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>100.07425497651597</c:v>
+                  <c:v>99.540565376862446</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>100.27940426192637</c:v>
+                  <c:v>100.21890028155634</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>100.38810209466433</c:v>
+                  <c:v>100.6772265266378</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>100.41108038854073</c:v>
+                  <c:v>100.9686881113265</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>100.30182235017371</c:v>
+                  <c:v>101.11454402430159</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>100.30263463941333</c:v>
+                  <c:v>101.05874219877707</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>100.16264419901272</c:v>
+                  <c:v>100.77709694325193</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>100.16058946942134</c:v>
+                  <c:v>100.52667921028474</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>99.954078342678443</c:v>
+                  <c:v>100.14519608302389</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>99.942338479668962</c:v>
+                  <c:v>100.0311443370731</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>99.889679560647892</c:v>
+                  <c:v>99.70721535989621</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>99.778441899127046</c:v>
+                  <c:v>99.623454158853505</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>99.738873866932266</c:v>
+                  <c:v>99.473071456905572</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>99.781877197888846</c:v>
+                  <c:v>99.229720646463136</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>99.993740832531131</c:v>
+                  <c:v>99.184283844784986</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>100.40690748527273</c:v>
+                  <c:v>99.267559106247404</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>100.83777455206999</c:v>
+                  <c:v>99.494163967000034</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>101.45823967946059</c:v>
+                  <c:v>99.932568072491165</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>#N/A</c:v>
+                  <c:v>100.41906919707829</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>#N/A</c:v>
+                  <c:v>101.09013294220593</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>#N/A</c:v>
+                  <c:v>101.83397384239474</c:v>
                 </c:pt>
                 <c:pt idx="133">
                   <c:v>#N/A</c:v>
@@ -3210,15 +2779,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'S&amp;P 500 Historische Daten'!$H$2</c:f>
+              <c:f>'S&amp;P 500 Historische Daten'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RS-Momentum</c:v>
+                  <c:v>RS-Momentum AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3226,7 +2795,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3235,380 +2804,860 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'S&amp;P 500 Historische Daten'!$A$3:$A$159</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="157"/>
+                <c:pt idx="0">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>40909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'S&amp;P 500 Historische Daten'!$H$3:$H$159</c:f>
+              <c:f>'S&amp;P 500 Historische Daten'!$I$3:$I$159</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="157"/>
                 <c:pt idx="0">
-                  <c:v>98.052269969038932</c:v>
+                  <c:v>99.257475565980187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.509123585518608</c:v>
+                  <c:v>99.274403275724552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.596053707816409</c:v>
+                  <c:v>99.199011099748788</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.114932729660836</c:v>
+                  <c:v>99.108989247530232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.296714074833389</c:v>
+                  <c:v>98.96839479990085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.546283391521982</c:v>
+                  <c:v>98.865349995676766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.872262117238336</c:v>
+                  <c:v>98.780870265608698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.45782897082522</c:v>
+                  <c:v>98.885503777927042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.91854350688179</c:v>
+                  <c:v>99.168738507034192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.74680049179052</c:v>
+                  <c:v>99.56308976753985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.24814822295387</c:v>
+                  <c:v>99.966306827380293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102.58899959660788</c:v>
+                  <c:v>100.31916765193886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>102.94157778448641</c:v>
+                  <c:v>100.58390793517647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102.89306858950992</c:v>
+                  <c:v>100.67713663703184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.68944782278872</c:v>
+                  <c:v>100.77869985776536</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>102.46214488385382</c:v>
+                  <c:v>100.90188204253955</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102.4822262112373</c:v>
+                  <c:v>101.09927007001961</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102.03128268613484</c:v>
+                  <c:v>101.32211410215727</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101.7543017017211</c:v>
+                  <c:v>101.55267790399355</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.43190983751454</c:v>
+                  <c:v>101.62601483153193</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101.04056237147171</c:v>
+                  <c:v>101.54670291737929</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.43720508052961</c:v>
+                  <c:v>101.30504579600108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99.780290279264733</c:v>
+                  <c:v>100.9709393805458</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99.097280491750794</c:v>
+                  <c:v>100.64429775617025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98.881699622461355</c:v>
+                  <c:v>100.36140173030226</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98.729409840773101</c:v>
+                  <c:v>100.15647955882973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>98.359265627534072</c:v>
+                  <c:v>99.944573087290777</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>98.383381285704999</c:v>
+                  <c:v>99.723648696607114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>98.459593808147119</c:v>
+                  <c:v>99.441403101856551</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>98.463421813778766</c:v>
+                  <c:v>99.135909170744895</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>98.511269779813986</c:v>
+                  <c:v>98.844996313850984</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>99.060246156378255</c:v>
+                  <c:v>98.727740957757277</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>99.336649810296933</c:v>
+                  <c:v>98.730773427133215</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.559231476116835</c:v>
+                  <c:v>98.856785086108943</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>99.741405346424628</c:v>
+                  <c:v>99.103309188982095</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100.00904469774146</c:v>
+                  <c:v>99.37775187753607</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.5130238994147</c:v>
+                  <c:v>99.580847853038776</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100.91898201500631</c:v>
+                  <c:v>99.758015999264927</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100.96793196472019</c:v>
+                  <c:v>99.985728798560785</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>101.07950918922803</c:v>
+                  <c:v>100.20911918753282</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>101.50630573941245</c:v>
+                  <c:v>100.464559864588</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>101.59563717706779</c:v>
+                  <c:v>100.73097803227188</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>101.66003428292403</c:v>
+                  <c:v>100.95575458147866</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>101.67591042602432</c:v>
+                  <c:v>100.97838207598356</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>101.56910780569513</c:v>
+                  <c:v>100.85647368349039</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.16336409081923</c:v>
+                  <c:v>100.66114648098872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101.26802916283722</c:v>
+                  <c:v>100.43805144794784</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>101.38138895383285</c:v>
+                  <c:v>100.24391841995582</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101.53587171966902</c:v>
+                  <c:v>100.18835359359649</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>101.8990606019544</c:v>
+                  <c:v>100.25181189706878</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>101.77496405394417</c:v>
+                  <c:v>100.29118505706552</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>101.65555907932699</c:v>
+                  <c:v>100.31313418702193</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>101.72464854047048</c:v>
+                  <c:v>100.2764977818352</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>101.65334870513017</c:v>
+                  <c:v>100.23771375170065</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>101.34860375264552</c:v>
+                  <c:v>100.2139629556815</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>101.24782009182901</c:v>
+                  <c:v>100.32795557917868</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>101.12222927516717</c:v>
+                  <c:v>100.55129501413725</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>101.25621115898704</c:v>
+                  <c:v>100.81400852588429</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>101.4090029375088</c:v>
+                  <c:v>100.98469231647235</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>101.54414040866169</c:v>
+                  <c:v>101.04435187254731</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>101.21406830801439</c:v>
+                  <c:v>100.93830429637285</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>101.27827797272366</c:v>
+                  <c:v>100.66964269507847</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>101.50435046034015</c:v>
+                  <c:v>100.40906859705545</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>101.29745947588461</c:v>
+                  <c:v>100.20893485103306</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>101.56981865942028</c:v>
+                  <c:v>100.09828795443336</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>101.80070599759247</c:v>
+                  <c:v>100.03819330372792</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>101.88629629823851</c:v>
+                  <c:v>100.03606094789086</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>102.12611521151879</c:v>
+                  <c:v>100.01420647177977</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>102.45640515056837</c:v>
+                  <c:v>100.01354244353794</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>102.68898552354241</c:v>
+                  <c:v>100.01965970397018</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>102.92008920478582</c:v>
+                  <c:v>100.11386151198576</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>102.94312005688572</c:v>
+                  <c:v>100.32273497265039</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>102.92820914068656</c:v>
+                  <c:v>100.6219554454003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>103.0655986625094</c:v>
+                  <c:v>100.94063557625633</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>103.4611649146254</c:v>
+                  <c:v>101.22943630154872</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>103.3392582096423</c:v>
+                  <c:v>101.44711960876342</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>102.83487742114363</c:v>
+                  <c:v>101.53013825277351</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>102.73749071470394</c:v>
+                  <c:v>101.53603979318021</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>102.46225530903635</c:v>
+                  <c:v>101.48696567290131</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>102.28349763985315</c:v>
+                  <c:v>101.37851899936453</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>102.19709124779671</c:v>
+                  <c:v>101.22739011948316</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>102.06055915718895</c:v>
+                  <c:v>101.11153867458631</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101.76909742304699</c:v>
+                  <c:v>100.94332472503902</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>101.60405198375916</c:v>
+                  <c:v>100.68102665708739</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>101.50078858869563</c:v>
+                  <c:v>100.45011909341079</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>101.27965992388324</c:v>
+                  <c:v>100.25620910467053</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>101.06812419704345</c:v>
+                  <c:v>100.05630536607612</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100.73972180761402</c:v>
+                  <c:v>99.942062184608858</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>100.25268039149697</c:v>
+                  <c:v>100.0269313132944</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>99.801798125706014</c:v>
+                  <c:v>100.13816281179365</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>99.504742711141745</c:v>
+                  <c:v>100.27586343426914</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>98.972741314704095</c:v>
+                  <c:v>100.46130160560583</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>98.2876492816698</c:v>
+                  <c:v>100.60478433903324</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>97.694710922372707</c:v>
+                  <c:v>100.61083196374254</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>97.027014681500148</c:v>
+                  <c:v>100.60435631495139</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96.271815392299644</c:v>
+                  <c:v>100.57673371276377</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>95.773742448438568</c:v>
+                  <c:v>100.40271506412664</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>95.157393463451697</c:v>
+                  <c:v>100.10867619774277</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>94.647739765336496</c:v>
+                  <c:v>99.755713969928365</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.498823365373866</c:v>
+                  <c:v>99.276791537425325</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>94.477969523425102</c:v>
+                  <c:v>98.666889356148545</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>94.571838906154909</c:v>
+                  <c:v>98.102222386724492</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>94.866694542914487</c:v>
+                  <c:v>97.651089936295762</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>95.183311916350732</c:v>
+                  <c:v>97.282152889871981</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>95.685836312624645</c:v>
+                  <c:v>97.053492542014396</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>96.133317704048153</c:v>
+                  <c:v>96.982943203114843</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>96.9348732160081</c:v>
+                  <c:v>97.039802896171565</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>97.436641882300663</c:v>
+                  <c:v>97.1995575902274</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>98.040263286221958</c:v>
+                  <c:v>97.52168871330629</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>98.786901504552148</c:v>
+                  <c:v>98.027188625625911</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>99.341322894648329</c:v>
+                  <c:v>98.648639402545527</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>99.86145590103267</c:v>
+                  <c:v>99.341655445985694</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>100.0805191838154</c:v>
+                  <c:v>99.999791001670857</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>99.873013494250827</c:v>
+                  <c:v>100.5713444336122</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>99.554063485233456</c:v>
+                  <c:v>100.91372354925468</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>98.967891327280881</c:v>
+                  <c:v>101.09560961986094</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>101.11566638200466</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>101.06981896369017</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>100.8872999065964</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>100.68168876978064</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>100.3778896509361</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>99.956496240604253</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>99.408671812923899</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>#N/A</c:v>
@@ -3718,7 +3767,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AEC2-4A93-BFEC-33628D9EE8C6}"/>
+              <c16:uniqueId val="{00000002-8191-491C-AEE9-1D0A74B82126}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3733,6 +3782,2000 @@
         <c:smooth val="0"/>
         <c:axId val="454379416"/>
         <c:axId val="454379744"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RS-Ratio</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$A$3:$A$159</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                      <c:ptCount val="157"/>
+                      <c:pt idx="0">
+                        <c:v>42001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41987</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41980</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>41973</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>41966</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>41959</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>41952</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>41945</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41938</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>41931</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>41924</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>41917</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>41910</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41903</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>41896</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>41889</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>41882</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>41875</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>41868</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>41861</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>41854</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>41847</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41840</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>41833</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>41826</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>41819</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>41812</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>41805</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>41798</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>41791</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>41784</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>41777</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>41770</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>41763</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>41756</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>41749</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>41742</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>41735</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>41728</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41721</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41714</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>41707</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>41700</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>41693</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>41686</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>41679</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>41672</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>41665</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>41658</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>41651</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>41644</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>41637</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>41630</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>41623</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>41616</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>41609</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>41602</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>41595</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>41588</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>41581</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>41574</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>41567</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>41560</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>41553</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>41546</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>41539</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>41532</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>41525</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>41518</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>41511</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>41504</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>41497</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>41490</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>41483</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>41476</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>41469</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>41462</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>41455</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>41448</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>41441</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>41434</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>41427</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>41420</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>41413</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>41406</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>41399</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>41392</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>41385</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>41378</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>41371</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>41364</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>41357</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>41350</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>41343</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>41336</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>41329</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>41322</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>41315</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>41308</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>41301</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>41294</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>41287</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>41280</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>41273</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>41266</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>41259</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>41252</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>41245</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>41238</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>41231</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>41224</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>41217</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>41210</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>41203</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>41196</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>41189</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41182</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>41175</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>41168</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>41161</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>41154</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>41147</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>41140</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>41133</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>41126</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>41119</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>41112</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>41105</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>41098</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>41091</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>41084</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>41077</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>41070</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>41063</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>41056</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>41049</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>41042</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>41035</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>41028</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>41021</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>41014</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>41007</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>41000</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>40993</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>40986</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>40979</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>40972</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>40965</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>40958</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>40951</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>40944</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>40937</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>40930</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>40923</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>40916</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>40909</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$F$3:$F$147</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="145"/>
+                      <c:pt idx="0">
+                        <c:v>100.44879946257728</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100.73543672146154</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100.0435859848004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>101.09992805332705</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100.19115940975669</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>102.40763208924159</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>100.43630604667256</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>101.12463396776906</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100.01316930378586</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100.34427474099522</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>99.155026889975034</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>99.389387065433354</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>100.09899686128381</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>101.67873271453905</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>102.29004807365651</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>102.62898758485089</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>104.3864168656107</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>101.89918807136959</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>102.63335136017206</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>102.59716921337835</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>102.28745056754683</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>102.49274103366501</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>104.18288596041278</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>103.78805430662383</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>103.94472731118809</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>102.38168719553872</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>101.19282796371219</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>101.51888499365067</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>99.937888909263933</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>101.23529682730255</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>101.22980905077151</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>101.38610195656102</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>100.5031500262531</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>99.769783516634874</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>98.584133144143692</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>99.039110581154233</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>98.218354539825995</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>98.461306290972857</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>99.70932855786549</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>100.45988872485222</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>100.96619925598166</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>100.67828203365099</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>100.65381944261894</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>100.66665620409781</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>101.34212436653856</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>101.91423286010235</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>103.64620264240376</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>102.39841839874003</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>102.02356979464487</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>102.6970137352846</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>102.13539497811969</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>100.61293089192975</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>100.9402098488781</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>101.50488424411317</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>100.88863829475511</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>101.63509127579927</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>100.93351851425906</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>100.08238298610863</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>98.434414696422735</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>98.942938052913917</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>99.630510815763884</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>101.08943611895977</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>101.04398450774796</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>101.58520990331417</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>102.50660778065941</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>100.16830887367951</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>99.740977063633636</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>99.528521761559901</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>99.749938519618354</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>99.503222367470173</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>99.59083349106217</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>99.300164564093123</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>100.03243423863449</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>97.879858343876734</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>97.431887694855931</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>97.024702434000389</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>97.897053840057993</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>100.70073197793715</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>99.992254589804432</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>99.497705612433862</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>99.321888314414636</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>99.54514470844849</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>99.780244140669865</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>99.423514243653571</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>98.267222667391721</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>98.576238358197244</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>98.681605364314322</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>98.044281236107977</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>96.631869554272413</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>96.802750564667846</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>96.612261251568299</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>95.21881126424546</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>95.893254006358234</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>95.827983160273192</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95.591776994800938</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96.21148556034008</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96.359096009777232</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>95.236532169793918</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>95.708942639537128</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>96.940082123389118</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>96.000693935574276</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>95.199019055435954</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>96.328466892447338</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>98.357345901622082</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>96.049442768620139</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>95.639331580847838</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>94.623466864053583</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>94.050092261656204</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>94.166384381008484</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>95.134059736697111</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>94.448617674902621</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>93.890829367470303</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>94.387161559625156</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>95.550674367609759</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>96.681969834040117</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>97.236417052957179</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>99.266713150120353</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>101.47805288446075</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>101.01230759652238</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>102.31597035521446</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>100.99365364049558</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>102.34130045439466</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>101.43283503643009</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>101.7897285904788</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>102.52718041595219</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>101.05058930858699</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>100.1795088503044</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>98.986688008658305</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>98.597091243826284</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>98.098309818159137</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>98.007294800916156</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>97.738172828083918</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>99.625032689085984</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>98.45415272827222</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>100.42770062391796</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>99.985136167103377</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>99.606970690643138</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>100.50534768844877</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>101.17881198785363</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>101.70594633768985</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>103.85794050972004</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>103.9363233132044</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>106.06005974244785</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>106.66426363034952</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>105.36055970241908</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-AEC2-4A93-BFEC-33628D9EE8C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RS-Momentum</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$A$3:$A$159</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                      <c:ptCount val="157"/>
+                      <c:pt idx="0">
+                        <c:v>42001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41994</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41987</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41980</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>41973</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>41966</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>41959</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>41952</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>41945</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41938</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>41931</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>41924</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>41917</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>41910</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41903</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>41896</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>41889</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>41882</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>41875</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>41868</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>41861</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>41854</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>41847</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41840</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>41833</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>41826</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>41819</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>41812</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>41805</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>41798</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>41791</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>41784</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>41777</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>41770</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>41763</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>41756</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>41749</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>41742</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>41735</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>41728</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41721</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41714</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>41707</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>41700</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>41693</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>41686</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>41679</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>41672</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>41665</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>41658</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>41651</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>41644</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>41637</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>41630</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>41623</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>41616</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>41609</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>41602</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>41595</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>41588</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>41581</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>41574</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>41567</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>41560</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>41553</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>41546</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>41539</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>41532</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>41525</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>41518</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>41511</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>41504</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>41497</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>41490</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>41483</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>41476</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>41469</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>41462</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>41455</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>41448</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>41441</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>41434</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>41427</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>41420</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>41413</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>41406</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>41399</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>41392</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>41385</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>41378</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>41371</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>41364</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>41357</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>41350</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>41343</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>41336</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>41329</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>41322</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>41315</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>41308</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>41301</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>41294</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>41287</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>41280</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>41273</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>41266</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>41259</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>41252</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>41245</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>41238</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>41231</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>41224</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>41217</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>41210</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>41203</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>41196</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>41189</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>41182</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>41175</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>41168</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>41161</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>41154</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>41147</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>41140</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>41133</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>41126</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>41119</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>41112</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>41105</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>41098</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>41091</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>41084</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>41077</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>41070</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>41063</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>41056</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>41049</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>41042</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>41035</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>41028</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>41021</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>41014</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>41007</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>41000</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>40993</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>40986</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>40979</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>40972</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>40965</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>40958</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>40951</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>40944</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>40937</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>40930</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>40923</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>40916</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>40909</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'S&amp;P 500 Historische Daten'!$H$3:$H$159</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="157"/>
+                      <c:pt idx="0">
+                        <c:v>99.294514025748441</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>99.307292058032971</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>99.205409267250161</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>99.269957615929272</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>99.210204862940074</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>99.379152574470297</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>98.930331178154034</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>98.755300006157555</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>98.566985377782316</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>98.694980841819657</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>98.95675392412997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>99.45349873974574</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>100.17147365169332</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>100.53874168031058</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>100.71106614102187</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>100.72105804692279</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100.77720015593374</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>100.63761716097014</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>101.04655778397826</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>101.32697706489286</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>101.70799818432305</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>101.89142031662206</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>101.79043617015157</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>101.41324242167006</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>100.93041749412974</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>100.49971257743196</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>100.22088823934564</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>100.15722804827386</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>99.998762292330056</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>99.905806636767153</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>99.440180219737215</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>99.116266285927281</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>98.746000074521092</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>98.47129263677175</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>98.451242352297569</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>98.853903439268734</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>99.131428632806958</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>99.376058369399772</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>99.703913151137527</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>99.823455795067375</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>99.869383316782262</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>100.01726936393764</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>100.51462236587911</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>100.82086509599772</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>101.10065918034324</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>101.20147415520164</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>101.14115210997153</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>100.62775983840365</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>100.21132313353188</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>100.12402316783485</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>100.08599898999734</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>100.17048697001141</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>100.34993570660704</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>100.52861465089326</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>100.32088896781849</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>100.19574463977948</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>99.987304944077692</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>100.15601555593436</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>100.40986067079746</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>100.89085208530446</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>101.31244181457234</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>101.30087250281281</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>101.00943450887465</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>100.70815845117228</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>100.36061420443221</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>99.969133808100338</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>99.998002012697782</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>100.00876577876268</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>100.15492396817382</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>100.06014095090494</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>99.958472028915082</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>99.888729632142343</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>100.00544563755345</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>100.18551027033509</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>100.53114999098283</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>101.00283933223824</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>101.38483199589194</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>101.59884629183351</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>101.62951389679704</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>101.61956652705629</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>101.4179325522887</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>101.41433969792553</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>101.35347569043896</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>101.08728052911323</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>100.86392212764942</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>100.83867532780445</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>100.57326995018899</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>100.04198535068086</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>99.932742710730167</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>99.894372183948207</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>99.839156634832321</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>100.00205404285272</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>100.46633099410856</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>100.48890020322651</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>100.58287529632555</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>100.76634749151579</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>100.7194677099898</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>100.49656911765511</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>100.45652195927066</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100.44476228538748</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>99.896254248330152</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>99.249273378070441</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>98.731757978583133</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>98.061909796755415</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>97.395251379003554</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>97.072919401209859</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>96.993611125926876</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>96.887072746464256</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>96.918608057467438</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>97.042504684505786</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>97.357217866493485</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>97.79238459620602</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>98.497728361858648</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>99.446107619065558</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>100.14975856910395</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>100.82229808369431</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>101.08306237463182</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>101.3554955215653</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>101.15800319727812</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>101.05918892213521</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>100.92258189441289</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>100.85382528305934</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>100.44290023609651</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>100.12994751319923</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>99.54019332791259</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>98.815614842753632</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>98.114703144657526</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>97.479804981273446</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>#N/A</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-AEC2-4A93-BFEC-33628D9EE8C6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="454379416"/>
@@ -3788,6 +5831,7 @@
         <c:axId val="454379744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="94"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5044,16 +7088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142473</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>751114</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5082,7 +7126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5380,11 +7424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -5438,23 +7482,23 @@
         <v>2.005150131182587</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <f ca="1">IF(ISNUMBER(OFFSET(D3, E$3, 0)),100*D3/OFFSET(D3, E$3, 0), NA())</f>
-        <v>99.922390993098574</v>
+        <v>100.44879946257728</v>
       </c>
       <c r="G3">
-        <f ca="1">AVERAGE(F3:F16)</f>
-        <v>100.84179810098944</v>
+        <f ca="1">IF(ISNUMBER(OFFSET(F3, E$3, 0)),AVERAGE(OFFSET(F3, 0, 0, E$3)), NA())</f>
+        <v>100.44911164464963</v>
       </c>
       <c r="H3">
-        <f ca="1">IF(ISNUMBER(OFFSET(G3, E$3, 0)),100*G3/OFFSET(G3, E$3, 0), NA())</f>
-        <v>98.052269969038932</v>
+        <f ca="1">IF(ISNUMBER(OFFSET(G3, E$4, 0)),100*G3/OFFSET(G3, E$4, 0), NA())</f>
+        <v>99.294514025748441</v>
       </c>
       <c r="I3">
-        <f ca="1">AVERAGE(H3:H16)</f>
-        <v>100.48447190990599</v>
+        <f ca="1">IF(ISNUMBER(OFFSET(H3, E$4, 0)),AVERAGE(OFFSET(H3, 0, 0, E$4)), NA())</f>
+        <v>99.257475565980187</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5472,23 +7516,23 @@
         <v>2.0260727605241362</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" ca="1" si="1">IF(ISNUMBER(OFFSET(D4, E$3, 0)),100*D4/OFFSET(D4, E$3, 0), NA())</f>
-        <v>100.97215363801992</v>
+        <v>100.73543672146154</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" ca="1" si="2">AVERAGE(F4:F17)</f>
-        <v>101.09094881712052</v>
+        <f t="shared" ref="G4:G67" ca="1" si="2">IF(ISNUMBER(OFFSET(F4, E$3, 0)),AVERAGE(OFFSET(F4, 0, 0, E$3)), NA())</f>
+        <v>100.41996142787518</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" ca="1" si="3">IF(ISNUMBER(OFFSET(G4, E$3, 0)),100*G4/OFFSET(G4, E$3, 0), NA())</f>
-        <v>98.509123585518608</v>
+        <f t="shared" ref="H4:H67" ca="1" si="3">IF(ISNUMBER(OFFSET(G4, E$4, 0)),100*G4/OFFSET(G4, E$4, 0), NA())</f>
+        <v>99.307292058032971</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" ca="1" si="4">AVERAGE(H4:H17)</f>
-        <v>100.81569889945956</v>
+        <f t="shared" ref="I4:I67" ca="1" si="4">IF(ISNUMBER(OFFSET(H4, E$4, 0)),AVERAGE(OFFSET(H4, 0, 0, E$4)), NA())</f>
+        <v>99.274403275724552</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5507,19 +7551,19 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>99.108271565045314</v>
+        <v>100.0435859848004</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>101.15644717334258</v>
+        <v>100.49856942729831</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>98.596053707816409</v>
+        <v>99.205409267250161</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>101.09805756362637</v>
+        <v>99.199011099748788</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5538,19 +7582,19 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>101.08994949402188</v>
+        <v>101.09992805332705</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>101.46305194908851</v>
+        <v>100.68577460136963</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>99.114932729660836</v>
+        <v>99.269957615929272</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>101.37564131387072</v>
+        <v>99.108989247530232</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,19 +7613,19 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>100.94028626541456</v>
+        <v>100.19115940975669</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>101.53279772509667</v>
+        <v>100.81319622899662</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>99.296714074833389</v>
+        <v>99.210204862940074</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>101.58395202504742</v>
+        <v>98.96839479990085</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5600,19 +7644,19 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>101.87783379027144</v>
+        <v>102.40763208924159</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>101.63249617290182</v>
+        <v>101.16280101698447</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>99.546283391521982</v>
+        <v>99.379152574470297</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>101.75949399839654</v>
+        <v>98.865349995676766</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,19 +7675,19 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>100.48404022378561</v>
+        <v>100.43630604667256</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>101.73208293730673</v>
+        <v>101.12043068216178</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>99.872262117238336</v>
+        <v>98.930331178154034</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>101.89418160168171</v>
+        <v>98.780870265608698</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5662,19 +7706,19 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>101.8935389718859</v>
+        <v>101.12463396776906</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>101.9768929844435</v>
+        <v>101.3035177916201</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>100.45782897082522</v>
+        <v>98.755300006157555</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>101.97763161984123</v>
+        <v>98.885503777927042</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5693,19 +7737,19 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>99.752530687819743</v>
+        <v>100.01316930378586</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>102.09092420299781</v>
+        <v>101.42622906208753</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>100.91854350688179</v>
+        <v>98.566985377782316</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>101.97615848482015</v>
+        <v>99.168738507034192</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5724,19 +7768,19 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>100.05608696718559</v>
+        <v>100.34427474099522</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>102.46740065310595</v>
+        <v>101.61575250073427</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>101.74680049179052</v>
+        <v>98.694980841819657</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>101.89485468284749</v>
+        <v>99.56308976753985</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5755,19 +7799,19 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>100.18380525442726</v>
+        <v>99.155026889975034</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>102.7432032287613</v>
+        <v>101.79479135845678</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>102.24814822295387</v>
+        <v>98.95675392412997</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>101.70560325427324</v>
+        <v>99.966306827380293</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5786,19 +7830,19 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>100.88014100944282</v>
+        <v>99.389387065433354</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>102.93478188589086</v>
+        <v>102.21377961432658</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>102.58899959660788</v>
+        <v>99.45349873974574</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>101.46514263995235</v>
+        <v>100.31916765193886</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5817,19 +7861,19 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>101.75399042102704</v>
+        <v>100.09899686128381</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>103.06537419910816</v>
+        <v>102.5803352177591</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>102.94157778448641</v>
+        <v>100.17147365169332</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>101.18945765739272</v>
+        <v>100.58390793517647</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5848,19 +7892,19 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>102.87015413240623</v>
+        <v>101.67873271453905</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>103.01384467220932</v>
+        <v>102.90081275525112</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>102.89306858950992</v>
+        <v>100.53874168031058</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>100.86214964618185</v>
+        <v>100.67713663703184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5879,19 +7923,19 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>103.4105010189336</v>
+        <v>102.29004807365651</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>102.84493988036313</v>
+        <v>102.95939229533444</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>102.68944782278872</v>
+        <v>100.71106614102187</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>100.54002912448145</v>
+        <v>100.77869985776536</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5910,19 +7954,19 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>101.88913062512907</v>
+        <v>102.62898758485089</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>102.62089960567008</v>
+        <v>102.86795728617243</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>102.46214488385382</v>
+        <v>100.72105804692279</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>100.2378966948642</v>
+        <v>100.90188204253955</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5941,19 +7985,19 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>103.40073842548819</v>
+        <v>104.3864168656107</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>102.59685187108376</v>
+        <v>102.77544873690574</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>102.4822262112373</v>
+        <v>100.77720015593374</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>99.952273618430269</v>
+        <v>101.09927007001961</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5972,19 +8016,19 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>102.06639035813606</v>
+        <v>101.89918807136959</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>102.36908723515178</v>
+        <v>102.40473807387684</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>102.03128268613484</v>
+        <v>100.63761716097014</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>99.668633873328616</v>
+        <v>101.32211410215727</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6003,19 +8047,19 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>102.33606453468701</v>
+        <v>102.63335136017206</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>102.25192109436583</v>
+        <v>102.34941380353791</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>101.7543017017211</v>
+        <v>101.04655778397826</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>99.456416978346027</v>
+        <v>101.55267790399355</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6034,19 +8078,19 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>103.27204849194025</v>
+        <v>102.59716921337835</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>102.09572141751856</v>
+        <v>102.2324519444212</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>101.43190983751454</v>
+        <v>101.32697706489286</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>99.283727557530014</v>
+        <v>101.62601483153193</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6065,19 +8109,19 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>103.91138088370035</v>
+        <v>102.28745056754683</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>101.86219955435192</v>
+        <v>102.13152967301977</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>101.04056237147171</v>
+        <v>101.70799818432305</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>99.14996481743016</v>
+        <v>101.54670291737929</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6096,19 +8140,19 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>103.48997603164639</v>
+        <v>102.49274103366501</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>101.51214099406771</v>
+        <v>101.98283796124529</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>100.43720508052961</v>
+        <v>101.89142031662206</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>99.057167887069653</v>
+        <v>101.30504579600108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6127,19 +8171,19 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>105.02320098933349</v>
+        <v>104.18288596041278</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>101.16170988539493</v>
+        <v>101.7559248348261</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>99.780290279264733</v>
+        <v>101.79043617015157</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>99.026585002584781</v>
+        <v>100.9709393805458</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6158,19 +8202,19 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>103.91732302636049</v>
+        <v>103.78805430662383</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>100.70822881685953</v>
+        <v>101.28936210013701</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>99.097280491750794</v>
+        <v>101.41324242167006</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>99.078923118309802</v>
+        <v>100.64429775617025</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6189,19 +8233,19 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>102.86590645424124</v>
+        <v>103.94472731118809</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>100.484170143334</v>
+        <v>100.89361678968123</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>98.881699622461355</v>
+        <v>100.93041749412974</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>99.20904465568519</v>
+        <v>100.36140173030226</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -6220,19 +8264,19 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>102.7084333944849</v>
+        <v>102.38168719553872</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>100.33705591305367</v>
+        <v>100.41641905873438</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>98.729409840773101</v>
+        <v>100.49971257743196</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>99.358061251560812</v>
+        <v>100.15647955882973</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -6251,19 +8295,19 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>101.03257704444331</v>
+        <v>101.19282796371219</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>100.1202589053773</v>
+        <v>100.08972065002054</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>98.359265627534072</v>
+        <v>100.22088823934564</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>99.525925490736171</v>
+        <v>99.944573087290777</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -6282,19 +8326,19 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>100.50548704655948</v>
+        <v>101.51888499365067</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>100.11738019319964</v>
+        <v>99.966095699533341</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>98.383381285704999</v>
+        <v>100.15722804827386</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>99.75071407015605</v>
+        <v>99.723648696607114</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -6313,19 +8357,19 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>100.27393717323093</v>
+        <v>99.937888909263933</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>100.15141970365129</v>
+        <v>99.877846010466783</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>98.459593808147119</v>
+        <v>99.998762292330056</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>99.980160919539117</v>
+        <v>99.441403101856551</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6344,19 +8388,19 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>101.55246234092054</v>
+        <v>101.23529682730255</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>100.15493987754814</v>
+        <v>99.963538539359902</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>98.463421813778766</v>
+        <v>99.905806636767153</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>100.20876381059462</v>
+        <v>99.135909170744895</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6375,19 +8419,19 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>100.21203352244042</v>
+        <v>101.22980905077151</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>100.11184930703027</v>
+        <v>99.917120639888978</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>98.511269779813986</v>
+        <v>99.440180219737215</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="4"/>
-        <v>100.43822728289786</v>
+        <v>98.844996313850984</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -6406,19 +8450,19 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>100.42606438713285</v>
+        <v>101.38610195656102</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>100.33107939067676</v>
+        <v>99.869121505876251</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>99.060246156378255</v>
+        <v>99.116266285927281</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="4"/>
-        <v>100.65664428474649</v>
+        <v>98.727740957757277</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -6437,19 +8481,19 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>100.14926905882533</v>
+        <v>100.5031500262531</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>100.48904015291994</v>
+        <v>99.809167693170977</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>99.336649810296933</v>
+        <v>98.746000074521092</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="4"/>
-        <v>100.80686699434943</v>
+        <v>98.730773427133215</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,19 +8512,19 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>100.00274240760751</v>
+        <v>99.769783516634874</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>100.65444058094479</v>
+        <v>99.879082221528108</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>99.559231476116835</v>
+        <v>98.47129263677175</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="4"/>
-        <v>100.94482266238802</v>
+        <v>98.856785086108943</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,19 +8543,19 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>99.010561039721196</v>
+        <v>98.584133144143692</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>100.8131755837418</v>
+        <v>100.05778633348375</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>99.741405346424628</v>
+        <v>98.451242352297569</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="4"/>
-        <v>101.07497676793915</v>
+        <v>99.103309188982095</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6530,19 +8574,19 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>98.583940510227322</v>
+        <v>99.039110581154233</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>101.07025669688461</v>
+        <v>100.47962545833872</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>100.00904469774146</v>
+        <v>98.853903439268734</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="4"/>
-        <v>101.20315293745662</v>
+        <v>99.37775187753607</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -6561,19 +8605,19 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>98.674466029837916</v>
+        <v>98.218354539825995</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>101.38446140241112</v>
+        <v>100.75956777647087</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>100.5130238994147</v>
+        <v>99.131428632806958</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="4"/>
-        <v>101.33815407347184</v>
+        <v>99.580847853038776</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6592,19 +8636,19 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>100.78050159700298</v>
+        <v>98.461306290972857</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>101.6256231423453</v>
+        <v>101.07666904770578</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>100.91898201500631</v>
+        <v>99.376058369399772</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="4"/>
-        <v>101.42829265593824</v>
+        <v>99.758015999264927</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -6623,19 +8667,19 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>100.80630723031697</v>
+        <v>99.70932855786549</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>101.62059362550504</v>
+        <v>101.42964466806508</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>100.96793196472019</v>
+        <v>99.703913151137527</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="4"/>
-        <v>101.4809053033897</v>
+        <v>99.985728798560785</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -6654,19 +8698,19 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>99.673275287015116</v>
+        <v>100.45988872485222</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="2"/>
-        <v>101.62833554345491</v>
+        <v>101.63181686975297</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>101.07950918922803</v>
+        <v>99.823455795067375</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="4"/>
-        <v>101.53495648737187</v>
+        <v>100.20911918753282</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -6685,19 +8729,19 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>100.99227507395662</v>
+        <v>100.96619925598166</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="2"/>
-        <v>101.79036846870304</v>
+        <v>101.64457038367611</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
-        <v>101.50630573941245</v>
+        <v>99.869383316782262</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="4"/>
-        <v>101.57594502422202</v>
+        <v>100.464559864588</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6716,19 +8760,19 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>100.98204019288231</v>
+        <v>100.67828203365099</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="2"/>
-        <v>101.76249167779578</v>
+        <v>101.6424045997508</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="3"/>
-        <v>101.59563717706779</v>
+        <v>100.01726936393764</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="4"/>
-        <v>101.56468059659581</v>
+        <v>100.73097803227188</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6747,19 +8791,19 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>100.32321960778694</v>
+        <v>100.65381944261894</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="2"/>
-        <v>101.71829461210328</v>
+        <v>101.7112881172893</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="3"/>
-        <v>101.66003428292403</v>
+        <v>100.51462236587911</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="4"/>
-        <v>101.53983651907872</v>
+        <v>100.95575458147866</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -6778,19 +8822,19 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>100.94919435367008</v>
+        <v>100.66665620409781</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="2"/>
-        <v>101.71791517358447</v>
+        <v>101.73085635496732</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="3"/>
-        <v>101.67591042602432</v>
+        <v>100.82086509599772</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="4"/>
-        <v>101.50142187566755</v>
+        <v>100.97838207598356</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -6809,19 +8853,19 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>103.28125469349143</v>
+        <v>101.34212436653856</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="2"/>
-        <v>101.62476793852498</v>
+        <v>101.81155927760913</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="3"/>
-        <v>101.56910780569513</v>
+        <v>101.10065918034324</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="4"/>
-        <v>101.47144335659345</v>
+        <v>100.85647368349039</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -6840,19 +8884,19 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>102.6375150585373</v>
+        <v>101.91423286010235</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="2"/>
-        <v>101.28288923519567</v>
+        <v>101.77750878991914</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="3"/>
-        <v>101.16336409081923</v>
+        <v>101.20147415520164</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="4"/>
-        <v>101.46000729458015</v>
+        <v>100.66114648098872</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -6871,19 +8915,19 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>102.46487505117355</v>
+        <v>103.64620264240376</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="2"/>
-        <v>101.16008577380425</v>
+        <v>101.624854633753</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="3"/>
-        <v>101.26802916283722</v>
+        <v>101.14115210997153</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="4"/>
-        <v>101.48720560299748</v>
+        <v>100.43805144794784</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -6902,19 +8946,19 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>102.22503244676557</v>
+        <v>102.39841839874003</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="2"/>
-        <v>101.100057813414</v>
+        <v>101.1905389715879</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="3"/>
-        <v>101.38138895383285</v>
+        <v>100.62775983840365</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="4"/>
-        <v>101.48335125622442</v>
+        <v>100.24391841995582</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6933,19 +8977,19 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>102.60969662372034</v>
+        <v>102.02356979464487</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="2"/>
-        <v>101.07454896348679</v>
+        <v>100.90258227610241</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="3"/>
-        <v>101.53587171966902</v>
+        <v>100.21132313353188</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="4"/>
-        <v>101.47598618614518</v>
+        <v>100.18835359359649</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -6964,19 +9008,19 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>102.98280638759834</v>
+        <v>102.6970137352846</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="2"/>
-        <v>101.06111602440606</v>
+        <v>100.703160694529</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="3"/>
-        <v>101.8990606019544</v>
+        <v>100.12402316783485</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="4"/>
-        <v>101.47373466762168</v>
+        <v>100.25181189706878</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6995,19 +9039,19 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
-        <v>102.050730388917</v>
+        <v>102.13539497811969</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="2"/>
-        <v>100.8669896389432</v>
+        <v>100.56919589316861</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="3"/>
-        <v>101.77496405394417</v>
+        <v>100.08599898999734</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="4"/>
-        <v>101.43076315861671</v>
+        <v>100.29118505706552</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -7026,19 +9070,19 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>100.7100883612389</v>
+        <v>100.61293089192975</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="2"/>
-        <v>100.7002063568516</v>
+        <v>100.47824502063763</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="3"/>
-        <v>101.65555907932699</v>
+        <v>100.17048697001141</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="4"/>
-        <v>101.41610991615072</v>
+        <v>100.31313418702193</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -7057,19 +9101,19 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>100.91469408161548</v>
+        <v>100.9402098488781</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="2"/>
-        <v>100.64640490112534</v>
+        <v>100.5592682715863</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="3"/>
-        <v>101.72464854047048</v>
+        <v>100.34993570660704</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="4"/>
-        <v>101.42647755316968</v>
+        <v>100.2764977818352</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7088,19 +9132,19 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
-        <v>101.94173624048912</v>
+        <v>101.50488424411317</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="2"/>
-        <v>100.54296499718794</v>
+        <v>100.68980143256807</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="3"/>
-        <v>101.65334870513017</v>
+        <v>100.52861465089326</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="4"/>
-        <v>101.43802382158167</v>
+        <v>100.23771375170065</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -7119,19 +9163,19 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>100.60200000125472</v>
+        <v>100.88863829475511</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="2"/>
-        <v>100.27984737226062</v>
+        <v>100.57842015169861</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="3"/>
-        <v>101.34860375264552</v>
+        <v>100.32088896781849</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="4"/>
-        <v>101.47179285775228</v>
+        <v>100.2139629556815</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7150,19 +9194,19 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>100.36328127318738</v>
+        <v>101.63509127579927</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="2"/>
-        <v>100.16423392319219</v>
+        <v>100.48278171577182</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="3"/>
-        <v>101.24782009182901</v>
+        <v>100.19574463977948</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="4"/>
-        <v>101.55092152903249</v>
+        <v>100.32795557917868</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -7181,19 +9225,19 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>100.31790746852329</v>
+        <v>100.93351851425906</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="2"/>
-        <v>100.05730898045647</v>
+        <v>100.30723425625189</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="3"/>
-        <v>101.12222927516717</v>
+        <v>99.987304944077692</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="4"/>
-        <v>101.65386191701202</v>
+        <v>100.55129501413725</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -7212,19 +9256,19 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
-        <v>99.645133062837218</v>
+        <v>100.08238298610863</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="2"/>
-        <v>100.0413123889269</v>
+        <v>100.20860259003183</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="3"/>
-        <v>101.25621115898704</v>
+        <v>100.15601555593436</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="4"/>
-        <v>101.78228048341336</v>
+        <v>100.81400852588429</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -7243,19 +9287,19 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="1"/>
-        <v>98.494952846881091</v>
+        <v>98.434414696422735</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="2"/>
-        <v>100.05480025770861</v>
+        <v>100.16033920514529</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="3"/>
-        <v>101.4090029375088</v>
+        <v>100.40986067079746</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="4"/>
-        <v>101.90277397612041</v>
+        <v>100.98469231647235</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -7274,19 +9318,19 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
-        <v>100.91826659905765</v>
+        <v>98.942938052913917</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="2"/>
-        <v>100.11815062246164</v>
+        <v>100.25670743803191</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="3"/>
-        <v>101.54414040866169</v>
+        <v>100.89085208530446</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="4"/>
-        <v>102.0112887049188</v>
+        <v>101.04435187254731</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -7305,19 +9349,19 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
-        <v>101.62448360571018</v>
+        <v>99.630510815763884</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="2"/>
-        <v>99.89340822574971</v>
+        <v>100.28647631396352</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="3"/>
-        <v>101.21406830801439</v>
+        <v>101.31244181457234</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="4"/>
-        <v>102.11996429447936</v>
+        <v>100.93830429637285</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -7336,19 +9380,19 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
-        <v>101.86790854778452</v>
+        <v>101.08943611895977</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="2"/>
-        <v>99.72250218376179</v>
+        <v>100.31996993253607</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="3"/>
-        <v>101.27827797272366</v>
+        <v>101.30087250281281</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="4"/>
-        <v>102.28047119495157</v>
+        <v>100.66964269507847</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -7367,19 +9411,19 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
-        <v>102.42163547659018</v>
+        <v>101.04398450774796</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="2"/>
-        <v>99.545655394129184</v>
+        <v>100.05250511794581</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="3"/>
-        <v>101.50435046034015</v>
+        <v>101.00943450887465</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="4"/>
-        <v>102.42768406901722</v>
+        <v>100.40906859705545</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -7398,19 +9442,19 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>100.26503699111798</v>
+        <v>101.58520990331417</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="2"/>
-        <v>99.177671930832034</v>
+        <v>99.751497050204804</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="3"/>
-        <v>101.29745947588461</v>
+        <v>100.70815845117228</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="4"/>
-        <v>102.5227217090746</v>
+        <v>100.20893485103306</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -7429,19 +9473,19 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="1"/>
-        <v>99.715764439634611</v>
+        <v>102.50660778065941</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="2"/>
-        <v>99.107860736241847</v>
+        <v>99.371454761095322</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="3"/>
-        <v>101.56981865942028</v>
+        <v>100.36061420443221</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="4"/>
-        <v>102.62558108327597</v>
+        <v>100.09828795443336</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -7460,19 +9504,19 @@
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F131" ca="1" si="6">IF(ISNUMBER(OFFSET(D68, E$3, 0)),100*D68/OFFSET(D68, E$3, 0), NA())</f>
-        <v>99.956867981071071</v>
+        <v>100.16830887367951</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G131" ca="1" si="7">AVERAGE(F68:F81)</f>
-        <v>99.060206120424866</v>
+        <f t="shared" ref="G68:G131" ca="1" si="7">IF(ISNUMBER(OFFSET(F68, E$3, 0)),AVERAGE(OFFSET(F68, 0, 0, E$3)), NA())</f>
+        <v>98.987325266045218</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" ca="1" si="8">IF(ISNUMBER(OFFSET(G68, E$3, 0)),100*G68/OFFSET(G68, E$3, 0), NA())</f>
-        <v>101.80070599759247</v>
+        <f t="shared" ref="H68:H131" ca="1" si="8">IF(ISNUMBER(OFFSET(G68, E$4, 0)),100*G68/OFFSET(G68, E$4, 0), NA())</f>
+        <v>99.969133808100338</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" ca="1" si="9">AVERAGE(H68:H81)</f>
-        <v>102.68932655824855</v>
+        <f t="shared" ref="I68:I131" ca="1" si="9">IF(ISNUMBER(OFFSET(H68, E$4, 0)),AVERAGE(OFFSET(H68, 0, 0, E$4)), NA())</f>
+        <v>100.03819330372792</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -7491,19 +9535,19 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>99.466535426492072</v>
+        <v>99.740977063633636</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>98.940036997113651</v>
+        <v>99.031693858066703</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>101.88629629823851</v>
+        <v>99.998002012697782</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="9"/>
-        <v>102.72381167555287</v>
+        <v>100.03606094789086</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -7522,19 +9566,19 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>98.25808949150651</v>
+        <v>99.528521761559901</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>98.907676213241956</v>
+        <v>99.052633651914221</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>102.12611521151879</v>
+        <v>100.00876577876268</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="9"/>
-        <v>102.74601131480702</v>
+        <v>100.01420647177977</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -7553,19 +9597,19 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>98.983411714296608</v>
+        <v>99.749938519618354</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>98.945465116625243</v>
+        <v>99.050065639487073</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>102.45640515056837</v>
+        <v>100.15492396817382</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="9"/>
-        <v>102.74132873949775</v>
+        <v>100.01354244353794</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -7584,19 +9628,19 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>98.86633207488758</v>
+        <v>99.503222367470173</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>98.929768396342709</v>
+        <v>99.014394789053412</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>102.68898552354241</v>
+        <v>100.06014095090494</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="9"/>
-        <v>102.69223533038908</v>
+        <v>100.01965970397018</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -7615,19 +9659,19 @@
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>100.09395518710897</v>
+        <v>99.59083349106217</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>98.946897925071539</v>
+        <v>99.017888317468291</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>102.92008920478582</v>
+        <v>99.958472028915082</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="9"/>
-        <v>102.61474007754741</v>
+        <v>100.11386151198576</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -7646,19 +9690,19 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>99.833963225781133</v>
+        <v>99.300164564093123</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>98.800173583275225</v>
+        <v>99.033672538268931</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>102.94312005688572</v>
+        <v>99.888729632142343</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="9"/>
-        <v>102.5133614621124</v>
+        <v>100.32273497265039</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -7677,19 +9721,19 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>99.381857953423619</v>
+        <v>100.03243423863449</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>98.664612962781334</v>
+        <v>99.04395167823229</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>102.92820914068656</v>
+        <v>100.00544563755345</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="9"/>
-        <v>102.39454288118365</v>
+        <v>100.6219554454003</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -7708,19 +9752,19 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>97.771873045090871</v>
+        <v>97.879858343876734</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>98.595694660015639</v>
+        <v>98.896850713962067</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>103.0655986625094</v>
+        <v>100.18551027033509</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="9"/>
-        <v>102.26167967092343</v>
+        <v>100.94063557625633</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -7739,19 +9783,19 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>99.231799017879155</v>
+        <v>97.431887694855931</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>98.695181307952524</v>
+        <v>98.954882381822117</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>103.4611649146254</v>
+        <v>100.53114999098283</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="9"/>
-        <v>102.09554560985949</v>
+        <v>101.22943630154872</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -7770,19 +9814,19 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>99.392053492928042</v>
+        <v>97.024702434000389</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>98.463860345867189</v>
+        <v>99.059025520943635</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>103.3392582096423</v>
+        <v>101.00283933223824</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="9"/>
-        <v>101.86636814392175</v>
+        <v>101.44711960876342</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -7801,19 +9845,19 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>97.269866990429961</v>
+        <v>97.897053840057993</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>98.070333875023152</v>
+        <v>99.14399042111927</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>102.83487742114363</v>
+        <v>101.38483199589194</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="9"/>
-        <v>101.61369242364059</v>
+        <v>101.53013825277351</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -7832,19 +9876,19 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>99.287680266855602</v>
+        <v>100.70073197793715</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>97.907363564673389</v>
+        <v>99.038558397303817</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>102.73749071470394</v>
+        <v>101.59884629183351</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="9"/>
-        <v>101.37582565864045</v>
+        <v>101.53603979318021</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -7863,19 +9907,19 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>99.048599818196976</v>
+        <v>99.992254589804432</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>97.576093020866992</v>
+        <v>98.713726612864704</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>102.46225530903635</v>
+        <v>101.62951389679704</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="9"/>
-        <v>101.10691498721189</v>
+        <v>101.48696567290131</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -7894,19 +9938,19 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>98.274500254713715</v>
+        <v>99.497705612433862</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>97.307975568231896</v>
+        <v>98.43206050134502</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>102.28349763985315</v>
+        <v>101.61956652705629</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="9"/>
-        <v>100.80872884239999</v>
+        <v>101.37851899936453</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -7925,19 +9969,19 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>99.013484452288395</v>
+        <v>99.321888314414636</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>97.108286974628413</v>
+        <v>98.075485972329318</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>102.19709124779671</v>
+        <v>101.4179325522887</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="9"/>
-        <v>100.48095836257995</v>
+        <v>101.22739011948316</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -7956,19 +10000,19 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>98.787134138872844</v>
+        <v>99.54514470844849</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>96.848564158529911</v>
+        <v>97.78976644665795</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>102.06055915718895</v>
+        <v>101.41433969792553</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="9"/>
-        <v>100.11166717927304</v>
+        <v>101.11153867458631</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -7987,19 +10031,19 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>98.763657630341029</v>
+        <v>99.780244140669865</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>96.573235193267308</v>
+        <v>97.480002984309991</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>101.76909742304699</v>
+        <v>101.35347569043896</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="9"/>
-        <v>99.698185481780953</v>
+        <v>100.94332472503902</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -8018,19 +10062,19 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>99.106145477091104</v>
+        <v>99.423514243653571</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>96.339220698272584</v>
+        <v>97.130964055487595</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>101.60405198375916</v>
+        <v>101.08728052911323</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="9"/>
-        <v>99.269945840737506</v>
+        <v>100.68102665708739</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -8049,19 +10093,19 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>98.039814401960982</v>
+        <v>98.267222667391721</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>96.139537664207992</v>
+        <v>96.863294998544802</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>101.50078858869563</v>
+        <v>100.86392212764942</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="9"/>
-        <v>98.809470232144108</v>
+        <v>100.45011909341079</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -8080,19 +10124,19 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>97.936114538866462</v>
+        <v>98.576238358197244</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>95.975499410430615</v>
+        <v>96.704284443743617</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>101.27965992388324</v>
+        <v>100.83867532780445</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="9"/>
-        <v>98.319966744761331</v>
+        <v>100.25620910467053</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -8111,19 +10155,19 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>98.417001714703915</v>
+        <v>98.681605364314322</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>95.857699056944085</v>
+        <v>96.425975594709996</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>101.06812419704345</v>
+        <v>100.57326995018899</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="9"/>
-        <v>97.835621276296379</v>
+        <v>100.05630536607612</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -8142,19 +10186,19 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>99.164686116207037</v>
+        <v>98.044281236107977</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>95.663049494205566</v>
+        <v>96.178253700978544</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>100.73972180761402</v>
+        <v>100.04198535068086</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="9"/>
-        <v>97.364895942466518</v>
+        <v>99.942062184608858</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -8173,19 +10217,19 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>95.99330554868466</v>
+        <v>96.631869554272413</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>95.393456462039936</v>
+        <v>96.086237108252007</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>100.25268039149697</v>
+        <v>99.932742710730167</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="9"/>
-        <v>96.924332878076584</v>
+        <v>100.0269313132944</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -8204,19 +10248,19 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>93.882682901111295</v>
+        <v>96.802750564667846</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>95.282143545210602</v>
+        <v>96.03363914002712</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>99.801798125706014</v>
+        <v>99.894372183948207</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="9"/>
-        <v>96.539619603177826</v>
+        <v>100.13816281179365</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -8235,19 +10279,19 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>94.988282645533531</v>
+        <v>96.612261251568299</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>95.366801939571474</v>
+        <v>95.899994847591131</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>99.504742711141745</v>
+        <v>99.839156634832321</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="9"/>
-        <v>96.209727731081003</v>
+        <v>100.27586343426914</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -8266,19 +10310,19 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>94.649892653565942</v>
+        <v>95.21881126424546</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>95.298573951505659</v>
+        <v>95.876345317664402</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>98.972741314704095</v>
+        <v>100.00205404285272</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="9"/>
-        <v>95.936948702615496</v>
+        <v>100.46130160560583</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -8297,19 +10341,19 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>95.294955481305522</v>
+        <v>95.893254006358234</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>95.231256355394279</v>
+        <v>96.137889870779119</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>98.2876492816698</v>
+        <v>100.46633099410856</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="9"/>
-        <v>95.73413273042577</v>
+        <v>100.60478433903324</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -8328,19 +10372,19 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>95.478859944264968</v>
+        <v>95.827983160273192</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>95.135557361227143</v>
+        <v>96.150905600967619</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>97.694710922372707</v>
+        <v>100.48890020322651</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="9"/>
-        <v>95.637505868592797</v>
+        <v>100.61083196374254</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -8359,19 +10403,19 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>95.377365026909331</v>
+        <v>95.591776994800938</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>95.02059773812006</v>
+        <v>96.135184636015495</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>97.027014681500148</v>
+        <v>100.58287529632555</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="9"/>
-        <v>95.619072365730503</v>
+        <v>100.60435631495139</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -8390,19 +10434,19 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>94.932528625196397</v>
+        <v>96.21148556034008</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>94.893232957276126</v>
+        <v>96.054492125119893</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>96.271815392299644</v>
+        <v>100.76634749151579</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="9"/>
-        <v>95.691447266067783</v>
+        <v>100.57673371276377</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -8421,19 +10465,19 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>95.487454700414872</v>
+        <v>96.359096009777232</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>94.89445975119456</v>
+        <v>95.874376016896235</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>95.773742448438568</v>
+        <v>100.7194677099898</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="9"/>
-        <v>95.871096274085829</v>
+        <v>100.40271506412664</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -8452,19 +10496,19 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>96.310583000186838</v>
+        <v>95.236532169793918</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>94.818286099133005</v>
+        <v>95.691650047832184</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="8"/>
-        <v>95.157393463451697</v>
+        <v>100.49656911765511</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>96.125923448815101</v>
+        <v>100.10867619774277</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -8483,19 +10527,19 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>95.743278849077612</v>
+        <v>95.708942639537128</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>94.718020422272147</v>
+        <v>95.683110678407445</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="8"/>
-        <v>94.647739765336496</v>
+        <v>100.45652195927066</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="9"/>
-        <v>96.461927908642309</v>
+        <v>99.755713969928365</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -8514,19 +10558,19 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="6"/>
-        <v>96.286909590055629</v>
+        <v>96.940082123389118</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="7"/>
-        <v>94.762857105327001</v>
+        <v>95.578083598021237</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="8"/>
-        <v>94.498823365373866</v>
+        <v>100.44476228538748</v>
       </c>
       <c r="I102">
         <f t="shared" ca="1" si="9"/>
-        <v>96.849983581390802</v>
+        <v>99.276791537425325</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -8545,19 +10589,19 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="6"/>
-        <v>95.691907836364706</v>
+        <v>96.000693935574276</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="7"/>
-        <v>94.844640502141843</v>
+        <v>95.323979201694669</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="8"/>
-        <v>94.477969523425102</v>
+        <v>99.896254248330152</v>
       </c>
       <c r="I103">
         <f t="shared" ca="1" si="9"/>
-        <v>97.233854304882016</v>
+        <v>98.666889356148545</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -8576,19 +10620,19 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="6"/>
-        <v>95.390383665887825</v>
+        <v>95.199019055435954</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="7"/>
-        <v>94.960605188980438</v>
+        <v>95.189518170365588</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="8"/>
-        <v>94.571838906154909</v>
+        <v>99.249273378070441</v>
       </c>
       <c r="I104">
         <f t="shared" ca="1" si="9"/>
-        <v>97.596432445011175</v>
+        <v>98.102222386724492</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -8607,19 +10651,19 @@
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="6"/>
-        <v>94.434924713073968</v>
+        <v>96.328466892447338</v>
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="7"/>
-        <v>95.153023429916033</v>
+        <v>95.218822779713378</v>
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="8"/>
-        <v>94.866694542914487</v>
+        <v>98.731757978583133</v>
       </c>
       <c r="I105">
         <f t="shared" ca="1" si="9"/>
-        <v>97.910436189377307</v>
+        <v>97.651089936295762</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -8638,19 +10682,19 @@
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="6"/>
-        <v>95.067900422163291</v>
+        <v>98.357345901622082</v>
       </c>
       <c r="G106">
         <f t="shared" ca="1" si="7"/>
-        <v>95.471369589150441</v>
+        <v>95.248281358179455</v>
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="8"/>
-        <v>95.183311916350732</v>
-      </c>
-      <c r="I106" t="e">
+        <v>98.061909796755415</v>
+      </c>
+      <c r="I106">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>97.282152889871981</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -8669,19 +10713,19 @@
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="6"/>
-        <v>94.03309081261223</v>
+        <v>96.049442768620139</v>
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="7"/>
-        <v>95.841463774663936</v>
+        <v>95.154870620790703</v>
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="8"/>
-        <v>95.685836312624645</v>
-      </c>
-      <c r="I107" t="e">
+        <v>97.395251379003554</v>
+      </c>
+      <c r="I107">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>97.053492542014396</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -8700,19 +10744,19 @@
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="6"/>
-        <v>93.707446308006709</v>
+        <v>95.639331580847838</v>
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="7"/>
-        <v>96.287697688886212</v>
+        <v>95.422976485915726</v>
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="8"/>
-        <v>96.133317704048153</v>
-      </c>
-      <c r="I108" t="e">
+        <v>97.072919401209859</v>
+      </c>
+      <c r="I108">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>96.982943203114843</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -8731,19 +10775,19 @@
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="6"/>
-        <v>93.955169562965423</v>
+        <v>94.623466864053583</v>
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="7"/>
-        <v>96.890359115704754</v>
+        <v>95.909536594550147</v>
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="8"/>
-        <v>96.9348732160081</v>
-      </c>
-      <c r="I109" t="e">
+        <v>96.993611125926876</v>
+      </c>
+      <c r="I109">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>97.039802896171565</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -8762,19 +10806,19 @@
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="6"/>
-        <v>93.869425220765919</v>
+        <v>94.050092261656204</v>
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="7"/>
-        <v>97.380458433231823</v>
+        <v>96.441939988922528</v>
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="8"/>
-        <v>97.436641882300663</v>
-      </c>
-      <c r="I110" t="e">
+        <v>96.887072746464256</v>
+      </c>
+      <c r="I110">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>97.1995575902274</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -8793,19 +10837,19 @@
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="6"/>
-        <v>93.594258095094361</v>
+        <v>94.166384381008484</v>
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="7"/>
-        <v>97.932104837022635</v>
+        <v>97.130763163385723</v>
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="8"/>
-        <v>98.040263286221958</v>
-      </c>
-      <c r="I111" t="e">
+        <v>96.918608057467438</v>
+      </c>
+      <c r="I111">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>97.52168871330629</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -8824,19 +10868,19 @@
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="6"/>
-        <v>94.949703740054773</v>
+        <v>95.134059736697111</v>
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="7"/>
-        <v>98.568031121667431</v>
+        <v>97.699702268342989</v>
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="8"/>
-        <v>98.786901504552148</v>
-      </c>
-      <c r="I112" t="e">
+        <v>97.042504684505786</v>
+      </c>
+      <c r="I112">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>98.027188625625911</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -8855,19 +10899,19 @@
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="6"/>
-        <v>94.421023571552823</v>
+        <v>94.448617674902621</v>
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="7"/>
-        <v>99.08191673963519</v>
+        <v>98.300305661484458</v>
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="8"/>
-        <v>99.341322894648329</v>
-      </c>
-      <c r="I113" t="e">
+        <v>97.357217866493485</v>
+      </c>
+      <c r="I113">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>98.648639402545527</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -8886,19 +10930,19 @@
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="6"/>
-        <v>94.906863524134565</v>
+        <v>93.890829367470303</v>
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="7"/>
-        <v>99.64363529519234</v>
+        <v>98.882323774945064</v>
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="8"/>
-        <v>99.86145590103267</v>
-      </c>
-      <c r="I114" t="e">
+        <v>97.79238459620602</v>
+      </c>
+      <c r="I114">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>99.341655445985694</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -8917,19 +10961,19 @@
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="6"/>
-        <v>96.370992411845805</v>
+        <v>94.387161559625156</v>
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="7"/>
-        <v>100.07425497651597</v>
+        <v>99.540565376862446</v>
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="8"/>
-        <v>100.0805191838154</v>
-      </c>
-      <c r="I115" t="e">
+        <v>98.497728361858648</v>
+      </c>
+      <c r="I115">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>99.999791001670857</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -8948,19 +10992,19 @@
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="6"/>
-        <v>97.431877145463389</v>
+        <v>95.550674367609759</v>
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="7"/>
-        <v>100.27940426192637</v>
+        <v>100.21890028155634</v>
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="8"/>
-        <v>99.873013494250827</v>
-      </c>
-      <c r="I116" t="e">
+        <v>99.446107619065558</v>
+      </c>
+      <c r="I116">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>100.5713444336122</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -8979,19 +11023,19 @@
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="6"/>
-        <v>97.315413452105048</v>
+        <v>96.681969834040117</v>
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="7"/>
-        <v>100.38810209466433</v>
+        <v>100.6772265266378</v>
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="8"/>
-        <v>99.554063485233456</v>
-      </c>
-      <c r="I117" t="e">
+        <v>100.14975856910395</v>
+      </c>
+      <c r="I117">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>100.91372354925468</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -9010,19 +11054,19 @@
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="6"/>
-        <v>98.084239038986041</v>
+        <v>97.236417052957179</v>
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="7"/>
-        <v>100.41108038854073</v>
+        <v>100.9686881113265</v>
       </c>
       <c r="H118">
         <f t="shared" ca="1" si="8"/>
-        <v>98.967891327280881</v>
-      </c>
-      <c r="I118" t="e">
+        <v>100.82229808369431</v>
+      </c>
+      <c r="I118">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>101.09560961986094</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -9041,19 +11085,19 @@
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="6"/>
-        <v>98.891770942355933</v>
+        <v>99.266713150120353</v>
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="7"/>
-        <v>100.30182235017371</v>
-      </c>
-      <c r="H119" t="e">
+        <v>101.11454402430159</v>
+      </c>
+      <c r="H119">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
+        <v>101.08306237463182</v>
+      </c>
+      <c r="I119">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>101.11566638200466</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -9072,19 +11116,19 @@
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="6"/>
-        <v>100.24921901935222</v>
+        <v>101.47805288446075</v>
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="7"/>
-        <v>100.30263463941333</v>
-      </c>
-      <c r="H120" t="e">
+        <v>101.05874219877707</v>
+      </c>
+      <c r="H120">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
+        <v>101.3554955215653</v>
+      </c>
+      <c r="I120">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>101.06981896369017</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -9103,19 +11147,19 @@
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="6"/>
-        <v>100.28036561172419</v>
+        <v>101.01230759652238</v>
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="7"/>
-        <v>100.16264419901272</v>
-      </c>
-      <c r="H121" t="e">
+        <v>100.77709694325193</v>
+      </c>
+      <c r="H121">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" t="e">
+        <v>101.15800319727812</v>
+      </c>
+      <c r="I121">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>100.8872999065964</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -9134,19 +11178,19 @@
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="6"/>
-        <v>102.14470628346581</v>
+        <v>102.31597035521446</v>
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="7"/>
-        <v>100.16058946942134</v>
-      </c>
-      <c r="H122" t="e">
+        <v>100.52667921028474</v>
+      </c>
+      <c r="H122">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" t="e">
+        <v>101.05918892213521</v>
+      </c>
+      <c r="I122">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>100.68168876978064</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -9165,19 +11209,19 @@
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="6"/>
-        <v>100.81656000834442</v>
+        <v>100.99365364049558</v>
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="7"/>
-        <v>99.954078342678443</v>
-      </c>
-      <c r="H123" t="e">
+        <v>100.14519608302389</v>
+      </c>
+      <c r="H123">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
+        <v>100.92258189441289</v>
+      </c>
+      <c r="I123">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>100.3778896509361</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -9196,19 +11240,19 @@
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="6"/>
-        <v>101.59247487383738</v>
+        <v>102.34130045439466</v>
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="7"/>
-        <v>99.942338479668962</v>
-      </c>
-      <c r="H124" t="e">
+        <v>100.0311443370731</v>
+      </c>
+      <c r="H124">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
+        <v>100.85382528305934</v>
+      </c>
+      <c r="I124">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>99.956496240604253</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -9227,19 +11271,19 @@
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="6"/>
-        <v>102.49722608012166</v>
+        <v>101.43283503643009</v>
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="7"/>
-        <v>99.889679560647892</v>
-      </c>
-      <c r="H125" t="e">
+        <v>99.70721535989621</v>
+      </c>
+      <c r="H125">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
+        <v>100.44290023609651</v>
+      </c>
+      <c r="I125">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
+        <v>99.408671812923899</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -9258,15 +11302,15 @@
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="6"/>
-        <v>102.14410239160327</v>
+        <v>101.7897285904788</v>
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="7"/>
-        <v>99.778441899127046</v>
-      </c>
-      <c r="H126" t="e">
+        <v>99.623454158853505</v>
+      </c>
+      <c r="H126">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>100.12994751319923</v>
       </c>
       <c r="I126" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -9289,15 +11333,15 @@
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="6"/>
-        <v>102.28508334935319</v>
+        <v>102.52718041595219</v>
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="7"/>
-        <v>99.738873866932266</v>
-      </c>
-      <c r="H127" t="e">
+        <v>99.473071456905572</v>
+      </c>
+      <c r="H127">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>99.54019332791259</v>
       </c>
       <c r="I127" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -9320,15 +11364,15 @@
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="6"/>
-        <v>100.93553906266553</v>
+        <v>101.05058930858699</v>
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="7"/>
-        <v>99.781877197888846</v>
-      </c>
-      <c r="H128" t="e">
+        <v>99.229720646463136</v>
+      </c>
+      <c r="H128">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>98.815614842753632</v>
       </c>
       <c r="I128" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -9351,15 +11395,15 @@
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="6"/>
-        <v>99.243082407591118</v>
+        <v>100.1795088503044</v>
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="7"/>
-        <v>99.993740832531131</v>
-      </c>
-      <c r="H129" t="e">
+        <v>99.184283844784986</v>
+      </c>
+      <c r="H129">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>98.114703144657526</v>
       </c>
       <c r="I129" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -9382,15 +11426,15 @@
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="6"/>
-        <v>98.953646803794967</v>
+        <v>98.986688008658305</v>
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="7"/>
-        <v>100.40690748527273</v>
-      </c>
-      <c r="H130" t="e">
+        <v>99.267559106247404</v>
+      </c>
+      <c r="H130">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>97.479804981273446</v>
       </c>
       <c r="I130" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -9413,11 +11457,11 @@
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="6"/>
-        <v>97.63710956637432</v>
+        <v>98.597091243826284</v>
       </c>
       <c r="G131">
         <f t="shared" ca="1" si="7"/>
-        <v>100.83777455206999</v>
+        <v>99.494163967000034</v>
       </c>
       <c r="H131" t="e">
         <f t="shared" ca="1" si="8"/>
@@ -9444,18 +11488,18 @@
       </c>
       <c r="F132">
         <f t="shared" ref="F132:F159" ca="1" si="11">IF(ISNUMBER(OFFSET(D132, E$3, 0)),100*D132/OFFSET(D132, E$3, 0), NA())</f>
-        <v>96.554626501847977</v>
+        <v>98.098309818159137</v>
       </c>
       <c r="G132">
-        <f t="shared" ref="G132:G159" ca="1" si="12">AVERAGE(F132:F145)</f>
-        <v>101.45823967946059</v>
+        <f t="shared" ref="G132:G159" ca="1" si="12">IF(ISNUMBER(OFFSET(F132, E$3, 0)),AVERAGE(OFFSET(F132, 0, 0, E$3)), NA())</f>
+        <v>99.932568072491165</v>
       </c>
       <c r="H132" t="e">
-        <f t="shared" ref="H132:H159" ca="1" si="13">IF(ISNUMBER(OFFSET(G132, E$3, 0)),100*G132/OFFSET(G132, E$3, 0), NA())</f>
+        <f t="shared" ref="H132:H159" ca="1" si="13">IF(ISNUMBER(OFFSET(G132, E$4, 0)),100*G132/OFFSET(G132, E$4, 0), NA())</f>
         <v>#N/A</v>
       </c>
       <c r="I132" t="e">
-        <f t="shared" ref="I132:I159" ca="1" si="14">AVERAGE(H132:H145)</f>
+        <f t="shared" ref="I132:I159" ca="1" si="14">IF(ISNUMBER(OFFSET(H132, E$4, 0)),AVERAGE(OFFSET(H132, 0, 0, E$4)), NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -9475,11 +11519,11 @@
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="11"/>
-        <v>98.903142991710681</v>
-      </c>
-      <c r="G133" t="e">
+        <v>98.007294800916156</v>
+      </c>
+      <c r="G133">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>100.41906919707829</v>
       </c>
       <c r="H133" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9506,11 +11550,11 @@
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="11"/>
-        <v>98.289352853743665</v>
-      </c>
-      <c r="G134" t="e">
+        <v>97.738172828083918</v>
+      </c>
+      <c r="G134">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>101.09013294220593</v>
       </c>
       <c r="H134" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9537,11 +11581,11 @@
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="11"/>
-        <v>100.25159939744498</v>
-      </c>
-      <c r="G135" t="e">
+        <v>99.625032689085984</v>
+      </c>
+      <c r="G135">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
+        <v>101.83397384239474</v>
       </c>
       <c r="H135" t="e">
         <f t="shared" ca="1" si="13"/>
@@ -9568,7 +11612,7 @@
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="11"/>
-        <v>99.253550509065022</v>
+        <v>98.45415272827222</v>
       </c>
       <c r="G136" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9599,7 +11643,7 @@
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="11"/>
-        <v>100.65220192621189</v>
+        <v>100.42770062391796</v>
       </c>
       <c r="G137" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9630,7 +11674,7 @@
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="11"/>
-        <v>100.85525000754212</v>
+        <v>99.985136167103377</v>
       </c>
       <c r="G138" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9661,7 +11705,7 @@
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="11"/>
-        <v>100.93989881883002</v>
+        <v>99.606970690643138</v>
       </c>
       <c r="G139" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9692,7 +11736,7 @@
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="11"/>
-        <v>101.59014994087623</v>
+        <v>100.50534768844877</v>
       </c>
       <c r="G140" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9723,7 +11767,7 @@
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="11"/>
-        <v>102.88712998274521</v>
+        <v>101.17881198785363</v>
       </c>
       <c r="G141" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9754,7 +11798,7 @@
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="11"/>
-        <v>103.9016299476578</v>
+        <v>101.70594633768985</v>
       </c>
       <c r="G142" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9785,7 +11829,7 @@
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="11"/>
-        <v>105.02741554597328</v>
+        <v>103.85794050972004</v>
       </c>
       <c r="G143" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9816,7 +11860,7 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="11"/>
-        <v>104.98578573895668</v>
+        <v>103.9363233132044</v>
       </c>
       <c r="G144" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9847,7 +11891,7 @@
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="11"/>
-        <v>106.32362134984278</v>
+        <v>106.06005974244785</v>
       </c>
       <c r="G145" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9876,9 +11920,9 @@
         <f t="shared" si="10"/>
         <v>2.1579594872968646</v>
       </c>
-      <c r="F146" t="e">
+      <c r="F146">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>106.66426363034952</v>
       </c>
       <c r="G146" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -9907,9 +11951,9 @@
         <f t="shared" si="10"/>
         <v>2.1413306637699061</v>
       </c>
-      <c r="F147" t="e">
+      <c r="F147">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>105.36055970241908</v>
       </c>
       <c r="G147" t="e">
         <f t="shared" ca="1" si="12"/>
